--- a/Exercício 3/Resultados de teste.xlsx
+++ b/Exercício 3/Resultados de teste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fatigue Level 7 níveis" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>c</t>
   </si>
@@ -96,10 +96,22 @@
     <t>4,3,2</t>
   </si>
   <si>
-    <t>6,5,4</t>
+    <t>FÓRMULA USADA:</t>
   </si>
   <si>
-    <t>0.4385290097</t>
+    <t>FatigueLevel ~ Performance.Task + Performance.MAMean + Performance.MVMean + Performance.DDCMean</t>
+  </si>
+  <si>
+    <t>Foi considerada: FatigueLevel ~ Performance.Task + Performance.MAMean + Performance.MVMean + Performance.DDCMean + Performance.DMSMean</t>
+  </si>
+  <si>
+    <t>Não houve melhoria significativa.</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ FatigueLevel ~ Performance.Task + Performance.KDTMean + Performance.ADMSLMean + Performance.DMSMean</t>
+  </si>
+  <si>
+    <t>Foi considerada: FatigueLevel ~ Performance.Task + Performance.KDTMean + Performance.ADMSLMean + Performance.DMSMean + Performance.MAMean</t>
   </si>
 </sst>
 </file>
@@ -670,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U68"/>
+  <dimension ref="B1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2425,6 +2437,26 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
     </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:J2"/>
@@ -2438,13 +2470,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U68"/>
+  <dimension ref="B1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2519,7 @@
       </c>
       <c r="H1" s="13">
         <f>MIN(H4:H68)</f>
-        <v>0</v>
+        <v>0.48401005600000002</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -2497,7 +2529,7 @@
       </c>
       <c r="M1" s="13">
         <f>MIN(M4:M68)</f>
-        <v>0.43452409460000002</v>
+        <v>0.45419566960000002</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
@@ -2602,11 +2634,11 @@
       <c r="G4" s="8">
         <v>4.3</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
+      <c r="H4" s="5">
+        <v>0.48401005600000002</v>
       </c>
       <c r="I4" s="6">
-        <v>90600</v>
+        <v>11895</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="17"/>
@@ -2614,10 +2646,10 @@
         <v>20</v>
       </c>
       <c r="M4" s="5">
-        <v>0.43452409460000002</v>
+        <v>0.45419566960000002</v>
       </c>
       <c r="N4" s="7">
-        <v>13805</v>
+        <v>400282</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="14"/>
@@ -2638,15 +2670,9 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.44643106890000001</v>
-      </c>
-      <c r="N5" s="7">
-        <v>34126</v>
-      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="8"/>
@@ -3977,6 +4003,26 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
     </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
